--- a/Document/2.Design/Template/Thong_tin_chi_tiet_hang_trong_kho.xlsx
+++ b/Document/2.Design/Template/Thong_tin_chi_tiet_hang_trong_kho.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" tabRatio="340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,12 +105,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -118,7 +118,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -126,7 +126,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -140,12 +140,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -153,45 +153,39 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,124 +470,156 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" customWidth="1"/>
-    <col min="7" max="7" width="24" style="6" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.25" style="8" customWidth="1"/>
+    <col min="2" max="2" width="18.875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="33.375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="14.75" style="8" customWidth="1"/>
+    <col min="5" max="5" width="18" style="8" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="24" style="9" customWidth="1"/>
+    <col min="8" max="8" width="18.625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="18.125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2"/>
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3"/>
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Document/2.Design/Template/Thong_tin_chi_tiet_hang_trong_kho.xlsx
+++ b/Document/2.Design/Template/Thong_tin_chi_tiet_hang_trong_kho.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C71CC9E-C759-407F-A196-006D71266681}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" tabRatio="340"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>STT</t>
   </si>
@@ -33,9 +34,6 @@
     <t>Số lượng</t>
   </si>
   <si>
-    <t>Trạng thái</t>
-  </si>
-  <si>
     <t>Thời gian nhập</t>
   </si>
   <si>
@@ -100,17 +98,23 @@
   </si>
   <si>
     <t>${item.outputPriceValue}</t>
+  </si>
+  <si>
+    <t>Trạng thái hàng hóa</t>
+  </si>
+  <si>
+    <t>Đơn vị tính</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -118,7 +122,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -126,7 +130,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -140,12 +144,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -153,11 +157,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -166,26 +185,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -466,166 +497,194 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="33.375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="14.75" style="8" customWidth="1"/>
-    <col min="5" max="5" width="18" style="8" customWidth="1"/>
-    <col min="6" max="6" width="23.625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="24" style="9" customWidth="1"/>
-    <col min="8" max="8" width="18.625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="18.125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="33.36328125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="18.36328125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="17" style="6" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.5">
+      <c r="A1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2"/>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
-      <c r="G2" s="3"/>
+      <c r="G2"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3"/>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
-      <c r="G3" s="3"/>
+      <c r="G3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4"/>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4"/>
-      <c r="G4" s="3"/>
+      <c r="G4"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
-      <c r="G5" s="3"/>
+      <c r="G5"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="H6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="I6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="J6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Document/2.Design/Template/Thong_tin_chi_tiet_hang_trong_kho.xlsx
+++ b/Document/2.Design/Template/Thong_tin_chi_tiet_hang_trong_kho.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C71CC9E-C759-407F-A196-006D71266681}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E309F786-DC74-4EE0-B989-9ED2680E24A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="380" windowWidth="19180" windowHeight="10190" tabRatio="340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,6 @@
     <t>Giá xuất</t>
   </si>
   <si>
-    <t>Thông tin chi tiết hàng trong kho ngày ${date}</t>
-  </si>
-  <si>
     <t>Kho hàng:</t>
   </si>
   <si>
@@ -104,6 +101,23 @@
   </si>
   <si>
     <t>Đơn vị tính</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thông tin chi tiết hàng trong kho
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Báo cáo được xuất tại thời điểm: ${date}</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -176,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -212,11 +226,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,7 +518,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -518,27 +535,27 @@
     <col min="10" max="10" width="15.453125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
+    <row r="1" spans="1:10" ht="33.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2"/>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
@@ -551,10 +568,10 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3"/>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -567,10 +584,10 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4"/>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -603,13 +620,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>4</v>
@@ -626,7 +643,7 @@
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -640,37 +657,37 @@
     </row>
     <row r="8" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="I8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="J8" s="13" t="s">
         <v>24</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>

--- a/Document/2.Design/Template/Thong_tin_chi_tiet_hang_trong_kho.xlsx
+++ b/Document/2.Design/Template/Thong_tin_chi_tiet_hang_trong_kho.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E309F786-DC74-4EE0-B989-9ED2680E24A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8000D7ED-6E3C-4E9B-87C4-1CDB81278930}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="380" windowWidth="19180" windowHeight="10190" tabRatio="340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="10" windowWidth="19180" windowHeight="10190" tabRatio="340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>STT</t>
   </si>
@@ -103,21 +103,13 @@
     <t>Đơn vị tính</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Thông tin chi tiết hàng trong kho
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Báo cáo được xuất tại thời điểm: ${date}</t>
-    </r>
+    <t>Thời gian xuất báo cáo: ${date}</t>
+  </si>
+  <si>
+    <t>Thông tin chi tiết hàng trong kho</t>
+  </si>
+  <si>
+    <t>${item.unitName}</t>
   </si>
 </sst>
 </file>
@@ -190,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -230,10 +222,13 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -515,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -535,43 +530,41 @@
     <col min="10" max="10" width="15.453125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="33.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2"/>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3"/>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -584,10 +577,10 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4"/>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -599,8 +592,12 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
@@ -609,99 +606,114 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J7" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="7" t="s">
+      <c r="F9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J9" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Document/2.Design/Template/Thong_tin_chi_tiet_hang_trong_kho.xlsx
+++ b/Document/2.Design/Template/Thong_tin_chi_tiet_hang_trong_kho.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8000D7ED-6E3C-4E9B-87C4-1CDB81278930}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1B1BD6-4A49-4646-BAEF-81FD9A1525D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="10" windowWidth="19180" windowHeight="10190" tabRatio="340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>STT</t>
   </si>
@@ -97,9 +97,6 @@
     <t>${item.outputPriceValue}</t>
   </si>
   <si>
-    <t>Trạng thái hàng hóa</t>
-  </si>
-  <si>
     <t>Đơn vị tính</t>
   </si>
   <si>
@@ -110,6 +107,21 @@
   </si>
   <si>
     <t>${item.unitName}</t>
+  </si>
+  <si>
+    <t>Trọng lượng(Kg)</t>
+  </si>
+  <si>
+    <t>Thể tích(m3)</t>
+  </si>
+  <si>
+    <t>${item.weight}</t>
+  </si>
+  <si>
+    <t>${item.volume}</t>
+  </si>
+  <si>
+    <t>Tình trạng hàng hóa</t>
   </si>
 </sst>
 </file>
@@ -510,29 +522,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
     <col min="2" max="2" width="18.1796875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="33.36328125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="36.6328125" style="5" customWidth="1"/>
     <col min="4" max="4" width="14.26953125" style="5" customWidth="1"/>
     <col min="5" max="5" width="11.36328125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="18.36328125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="17" style="6" customWidth="1"/>
-    <col min="9" max="9" width="15.1796875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="15.453125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="9.453125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" style="5" customWidth="1"/>
+    <col min="10" max="11" width="13.453125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="12.1796875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" ht="24.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -543,10 +554,12 @@
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+    </row>
+    <row r="2" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -557,8 +570,10 @@
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3"/>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -570,11 +585,13 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="H3"/>
+      <c r="I3"/>
       <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4"/>
       <c r="B4" s="1" t="s">
         <v>9</v>
@@ -586,11 +603,13 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="H4"/>
+      <c r="I4"/>
       <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5"/>
       <c r="B5" s="1" t="s">
         <v>10</v>
@@ -602,11 +621,13 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="H5"/>
+      <c r="I5"/>
       <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -614,11 +635,13 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="H6"/>
+      <c r="I6"/>
       <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
@@ -629,28 +652,34 @@
         <v>2</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="J7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="K7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="L7" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
@@ -660,11 +689,13 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
@@ -681,22 +712,28 @@
         <v>18</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="J9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="K9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="L9" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
@@ -706,14 +743,16 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
       <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
